--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2-CSS30-VV/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2-CSS30-VV/pyControllerList/PV Controller.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblonsky/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A071806-BA66-6341-B0A8-B9F65F7EA579}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640"/>
+    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2089,7 +2085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2432,7 +2428,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -2447,47 +2443,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2595,7 +2554,25 @@
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2921,6 +2898,16 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2935,33 +2922,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X648" insertRowShift="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:X648"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:X648" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:X648" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Controlled PV" dataDxfId="25"/>
-    <tableColumn id="2" name="Qcontrol" dataDxfId="1"/>
-    <tableColumn id="3" name="Pcontrol" dataDxfId="0"/>
-    <tableColumn id="4" name="pf" dataDxfId="24"/>
-    <tableColumn id="5" name="pfMin" dataDxfId="23"/>
-    <tableColumn id="6" name="pfMax" dataDxfId="22"/>
-    <tableColumn id="7" name="Pmin" dataDxfId="21"/>
-    <tableColumn id="8" name="Pmax" dataDxfId="20"/>
-    <tableColumn id="9" name="uMin" dataDxfId="19"/>
-    <tableColumn id="10" name="uDbMin" dataDxfId="18"/>
-    <tableColumn id="11" name="uDbMax" dataDxfId="17"/>
-    <tableColumn id="12" name="uMax" dataDxfId="16"/>
-    <tableColumn id="13" name="QlimPU" dataDxfId="15"/>
-    <tableColumn id="14" name="PFlim" dataDxfId="14"/>
-    <tableColumn id="23" name="Enable PF limit" dataDxfId="13"/>
-    <tableColumn id="21" name="uMinC" dataDxfId="12"/>
-    <tableColumn id="22" name="uMaxC" dataDxfId="11"/>
-    <tableColumn id="15" name="PminVW" dataDxfId="10"/>
-    <tableColumn id="16" name="VWtype" dataDxfId="9"/>
-    <tableColumn id="17" name="%PCutin" dataDxfId="8"/>
-    <tableColumn id="18" name="%PCutout" dataDxfId="7"/>
-    <tableColumn id="19" name="Efficiency" dataDxfId="6"/>
-    <tableColumn id="24" name="Priority" dataDxfId="5"/>
-    <tableColumn id="20" name="pDampCoef" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="pDampCoef" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3229,11 +3216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B648"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3430,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" s="11">
         <v>10</v>
@@ -3507,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" s="11">
         <v>10</v>
@@ -3584,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="11">
         <v>10</v>
@@ -3661,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T6" s="11">
         <v>10</v>
@@ -3738,7 +3725,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T7" s="11">
         <v>10</v>
@@ -3815,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T8" s="11">
         <v>10</v>
@@ -3892,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9" s="11">
         <v>10</v>
@@ -3969,7 +3956,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T10" s="11">
         <v>10</v>
@@ -4046,7 +4033,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T11" s="11">
         <v>10</v>
@@ -4123,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T12" s="11">
         <v>10</v>
@@ -4200,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T13" s="11">
         <v>10</v>
@@ -4277,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T14" s="11">
         <v>10</v>
@@ -4354,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T15" s="11">
         <v>10</v>
@@ -4431,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T16" s="11">
         <v>10</v>
@@ -4508,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T17" s="11">
         <v>10</v>
@@ -4585,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T18" s="11">
         <v>10</v>
@@ -4662,7 +4649,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T19" s="11">
         <v>10</v>
@@ -4739,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T20" s="11">
         <v>10</v>
@@ -4816,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T21" s="11">
         <v>10</v>
@@ -4893,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22" s="11">
         <v>10</v>
@@ -4970,7 +4957,7 @@
         <v>10</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23" s="11">
         <v>10</v>
@@ -5047,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T24" s="11">
         <v>10</v>
@@ -5124,7 +5111,7 @@
         <v>10</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T25" s="11">
         <v>10</v>
@@ -5201,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T26" s="11">
         <v>10</v>
@@ -5278,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T27" s="11">
         <v>10</v>
@@ -5355,7 +5342,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T28" s="11">
         <v>10</v>
@@ -5432,7 +5419,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T29" s="11">
         <v>10</v>
@@ -5509,7 +5496,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T30" s="11">
         <v>10</v>
@@ -5586,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T31" s="11">
         <v>10</v>
@@ -5663,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T32" s="11">
         <v>10</v>
@@ -5740,7 +5727,7 @@
         <v>10</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T33" s="11">
         <v>10</v>
@@ -5817,7 +5804,7 @@
         <v>10</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T34" s="11">
         <v>10</v>
@@ -5894,7 +5881,7 @@
         <v>10</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T35" s="11">
         <v>10</v>
@@ -5971,7 +5958,7 @@
         <v>10</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T36" s="11">
         <v>10</v>
@@ -6048,7 +6035,7 @@
         <v>10</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T37" s="11">
         <v>10</v>
@@ -6125,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T38" s="11">
         <v>10</v>
@@ -6202,7 +6189,7 @@
         <v>10</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T39" s="11">
         <v>10</v>
@@ -6279,7 +6266,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T40" s="11">
         <v>10</v>
@@ -6356,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T41" s="11">
         <v>10</v>
@@ -6433,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T42" s="11">
         <v>10</v>
@@ -6510,7 +6497,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T43" s="11">
         <v>10</v>
@@ -6587,7 +6574,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T44" s="11">
         <v>10</v>
@@ -6664,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T45" s="11">
         <v>10</v>
@@ -6741,7 +6728,7 @@
         <v>10</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T46" s="11">
         <v>10</v>
@@ -6818,7 +6805,7 @@
         <v>10</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T47" s="11">
         <v>10</v>
@@ -6895,7 +6882,7 @@
         <v>10</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T48" s="11">
         <v>10</v>
@@ -6972,7 +6959,7 @@
         <v>10</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T49" s="11">
         <v>10</v>
@@ -7049,7 +7036,7 @@
         <v>10</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T50" s="11">
         <v>10</v>
@@ -7126,7 +7113,7 @@
         <v>10</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T51" s="11">
         <v>10</v>
@@ -7203,7 +7190,7 @@
         <v>10</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T52" s="11">
         <v>10</v>
@@ -7280,7 +7267,7 @@
         <v>10</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T53" s="11">
         <v>10</v>
@@ -7357,7 +7344,7 @@
         <v>10</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T54" s="11">
         <v>10</v>
@@ -7434,7 +7421,7 @@
         <v>10</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T55" s="11">
         <v>10</v>
@@ -7511,7 +7498,7 @@
         <v>10</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T56" s="11">
         <v>10</v>
@@ -7588,7 +7575,7 @@
         <v>10</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T57" s="11">
         <v>10</v>
@@ -7665,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T58" s="11">
         <v>10</v>
@@ -7742,7 +7729,7 @@
         <v>10</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T59" s="11">
         <v>10</v>
@@ -7819,7 +7806,7 @@
         <v>10</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T60" s="11">
         <v>10</v>
@@ -7896,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T61" s="11">
         <v>10</v>
@@ -7973,7 +7960,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T62" s="11">
         <v>10</v>
@@ -8050,7 +8037,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T63" s="11">
         <v>10</v>
@@ -8127,7 +8114,7 @@
         <v>10</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T64" s="11">
         <v>10</v>
@@ -8204,7 +8191,7 @@
         <v>10</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T65" s="11">
         <v>10</v>
@@ -8281,7 +8268,7 @@
         <v>10</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T66" s="11">
         <v>10</v>
@@ -8358,7 +8345,7 @@
         <v>10</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T67" s="11">
         <v>10</v>
@@ -8435,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T68" s="11">
         <v>10</v>
@@ -8512,7 +8499,7 @@
         <v>10</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T69" s="11">
         <v>10</v>
@@ -8589,7 +8576,7 @@
         <v>10</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T70" s="11">
         <v>10</v>
@@ -8666,7 +8653,7 @@
         <v>10</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T71" s="11">
         <v>10</v>
@@ -8743,7 +8730,7 @@
         <v>10</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T72" s="11">
         <v>10</v>
@@ -8820,7 +8807,7 @@
         <v>10</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T73" s="11">
         <v>10</v>
@@ -8897,7 +8884,7 @@
         <v>10</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T74" s="11">
         <v>10</v>
@@ -8974,7 +8961,7 @@
         <v>10</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T75" s="11">
         <v>10</v>
@@ -9051,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T76" s="11">
         <v>10</v>
@@ -9128,7 +9115,7 @@
         <v>10</v>
       </c>
       <c r="S77" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T77" s="11">
         <v>10</v>
@@ -9205,7 +9192,7 @@
         <v>10</v>
       </c>
       <c r="S78" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T78" s="11">
         <v>10</v>
@@ -9282,7 +9269,7 @@
         <v>10</v>
       </c>
       <c r="S79" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T79" s="11">
         <v>10</v>
@@ -9359,7 +9346,7 @@
         <v>10</v>
       </c>
       <c r="S80" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T80" s="11">
         <v>10</v>
@@ -9436,7 +9423,7 @@
         <v>10</v>
       </c>
       <c r="S81" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T81" s="11">
         <v>10</v>
@@ -9513,7 +9500,7 @@
         <v>10</v>
       </c>
       <c r="S82" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T82" s="11">
         <v>10</v>
@@ -9590,7 +9577,7 @@
         <v>10</v>
       </c>
       <c r="S83" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T83" s="11">
         <v>10</v>
@@ -9667,7 +9654,7 @@
         <v>10</v>
       </c>
       <c r="S84" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T84" s="11">
         <v>10</v>
@@ -9744,7 +9731,7 @@
         <v>10</v>
       </c>
       <c r="S85" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T85" s="11">
         <v>10</v>
@@ -9821,7 +9808,7 @@
         <v>10</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T86" s="11">
         <v>10</v>
@@ -9898,7 +9885,7 @@
         <v>10</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T87" s="11">
         <v>10</v>
@@ -9975,7 +9962,7 @@
         <v>10</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T88" s="11">
         <v>10</v>
@@ -10052,7 +10039,7 @@
         <v>10</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T89" s="11">
         <v>10</v>
@@ -10129,7 +10116,7 @@
         <v>10</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T90" s="11">
         <v>10</v>
@@ -10206,7 +10193,7 @@
         <v>10</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T91" s="11">
         <v>10</v>
@@ -10283,7 +10270,7 @@
         <v>10</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T92" s="11">
         <v>10</v>
@@ -10360,7 +10347,7 @@
         <v>10</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T93" s="11">
         <v>10</v>
@@ -10437,7 +10424,7 @@
         <v>10</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T94" s="11">
         <v>10</v>
@@ -10514,7 +10501,7 @@
         <v>10</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T95" s="11">
         <v>10</v>
@@ -10591,7 +10578,7 @@
         <v>10</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T96" s="11">
         <v>10</v>
@@ -10668,7 +10655,7 @@
         <v>10</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T97" s="11">
         <v>10</v>
@@ -10745,7 +10732,7 @@
         <v>10</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T98" s="11">
         <v>10</v>
@@ -10822,7 +10809,7 @@
         <v>10</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T99" s="11">
         <v>10</v>
@@ -10899,7 +10886,7 @@
         <v>10</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T100" s="11">
         <v>10</v>
@@ -10976,7 +10963,7 @@
         <v>10</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T101" s="11">
         <v>10</v>
@@ -11053,7 +11040,7 @@
         <v>10</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T102" s="11">
         <v>10</v>
@@ -11130,7 +11117,7 @@
         <v>10</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T103" s="11">
         <v>10</v>
@@ -11207,7 +11194,7 @@
         <v>10</v>
       </c>
       <c r="S104" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T104" s="11">
         <v>10</v>
@@ -11284,7 +11271,7 @@
         <v>10</v>
       </c>
       <c r="S105" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T105" s="11">
         <v>10</v>
@@ -11361,7 +11348,7 @@
         <v>10</v>
       </c>
       <c r="S106" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T106" s="11">
         <v>10</v>
@@ -11438,7 +11425,7 @@
         <v>10</v>
       </c>
       <c r="S107" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T107" s="11">
         <v>10</v>
@@ -11515,7 +11502,7 @@
         <v>10</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T108" s="11">
         <v>10</v>
@@ -11592,7 +11579,7 @@
         <v>10</v>
       </c>
       <c r="S109" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T109" s="11">
         <v>10</v>
@@ -11669,7 +11656,7 @@
         <v>10</v>
       </c>
       <c r="S110" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T110" s="11">
         <v>10</v>
@@ -11746,7 +11733,7 @@
         <v>10</v>
       </c>
       <c r="S111" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T111" s="11">
         <v>10</v>
@@ -11823,7 +11810,7 @@
         <v>10</v>
       </c>
       <c r="S112" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T112" s="11">
         <v>10</v>
@@ -11900,7 +11887,7 @@
         <v>10</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T113" s="11">
         <v>10</v>
@@ -11977,7 +11964,7 @@
         <v>10</v>
       </c>
       <c r="S114" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T114" s="11">
         <v>10</v>
@@ -12054,7 +12041,7 @@
         <v>10</v>
       </c>
       <c r="S115" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T115" s="11">
         <v>10</v>
@@ -12131,7 +12118,7 @@
         <v>10</v>
       </c>
       <c r="S116" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T116" s="11">
         <v>10</v>
@@ -12208,7 +12195,7 @@
         <v>10</v>
       </c>
       <c r="S117" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T117" s="11">
         <v>10</v>
@@ -12285,7 +12272,7 @@
         <v>10</v>
       </c>
       <c r="S118" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T118" s="11">
         <v>10</v>
@@ -12362,7 +12349,7 @@
         <v>10</v>
       </c>
       <c r="S119" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T119" s="11">
         <v>10</v>
@@ -12439,7 +12426,7 @@
         <v>10</v>
       </c>
       <c r="S120" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T120" s="11">
         <v>10</v>
@@ -12516,7 +12503,7 @@
         <v>10</v>
       </c>
       <c r="S121" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T121" s="11">
         <v>10</v>
@@ -12593,7 +12580,7 @@
         <v>10</v>
       </c>
       <c r="S122" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T122" s="11">
         <v>10</v>
@@ -12670,7 +12657,7 @@
         <v>10</v>
       </c>
       <c r="S123" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T123" s="11">
         <v>10</v>
@@ -12747,7 +12734,7 @@
         <v>10</v>
       </c>
       <c r="S124" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T124" s="11">
         <v>10</v>
@@ -12824,7 +12811,7 @@
         <v>10</v>
       </c>
       <c r="S125" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T125" s="11">
         <v>10</v>
@@ -12901,7 +12888,7 @@
         <v>10</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T126" s="11">
         <v>10</v>
@@ -12978,7 +12965,7 @@
         <v>10</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T127" s="11">
         <v>10</v>
@@ -13055,7 +13042,7 @@
         <v>10</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T128" s="11">
         <v>10</v>
@@ -13132,7 +13119,7 @@
         <v>10</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T129" s="11">
         <v>10</v>
@@ -13209,7 +13196,7 @@
         <v>10</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T130" s="11">
         <v>10</v>
@@ -13286,7 +13273,7 @@
         <v>10</v>
       </c>
       <c r="S131" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T131" s="11">
         <v>10</v>
@@ -13363,7 +13350,7 @@
         <v>10</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T132" s="11">
         <v>10</v>
@@ -13440,7 +13427,7 @@
         <v>10</v>
       </c>
       <c r="S133" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T133" s="11">
         <v>10</v>
@@ -13517,7 +13504,7 @@
         <v>10</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T134" s="11">
         <v>10</v>
@@ -13594,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T135" s="11">
         <v>10</v>
@@ -13671,7 +13658,7 @@
         <v>10</v>
       </c>
       <c r="S136" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T136" s="11">
         <v>10</v>
@@ -13748,7 +13735,7 @@
         <v>10</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T137" s="11">
         <v>10</v>
@@ -13825,7 +13812,7 @@
         <v>10</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T138" s="11">
         <v>10</v>
@@ -13902,7 +13889,7 @@
         <v>10</v>
       </c>
       <c r="S139" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T139" s="11">
         <v>10</v>
@@ -13979,7 +13966,7 @@
         <v>10</v>
       </c>
       <c r="S140" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T140" s="11">
         <v>10</v>
@@ -14056,7 +14043,7 @@
         <v>10</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T141" s="11">
         <v>10</v>
@@ -14133,7 +14120,7 @@
         <v>10</v>
       </c>
       <c r="S142" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T142" s="11">
         <v>10</v>
@@ -14210,7 +14197,7 @@
         <v>10</v>
       </c>
       <c r="S143" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T143" s="11">
         <v>10</v>
@@ -14287,7 +14274,7 @@
         <v>10</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T144" s="11">
         <v>10</v>
@@ -14364,7 +14351,7 @@
         <v>10</v>
       </c>
       <c r="S145" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T145" s="11">
         <v>10</v>
@@ -14441,7 +14428,7 @@
         <v>10</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T146" s="11">
         <v>10</v>
@@ -14518,7 +14505,7 @@
         <v>10</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T147" s="11">
         <v>10</v>
@@ -14595,7 +14582,7 @@
         <v>10</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T148" s="11">
         <v>10</v>
@@ -14672,7 +14659,7 @@
         <v>10</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T149" s="11">
         <v>10</v>
@@ -14749,7 +14736,7 @@
         <v>10</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T150" s="11">
         <v>10</v>
@@ -14826,7 +14813,7 @@
         <v>10</v>
       </c>
       <c r="S151" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T151" s="11">
         <v>10</v>
@@ -14903,7 +14890,7 @@
         <v>10</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T152" s="11">
         <v>10</v>
@@ -14980,7 +14967,7 @@
         <v>10</v>
       </c>
       <c r="S153" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T153" s="11">
         <v>10</v>
@@ -15057,7 +15044,7 @@
         <v>10</v>
       </c>
       <c r="S154" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T154" s="11">
         <v>10</v>
@@ -15134,7 +15121,7 @@
         <v>10</v>
       </c>
       <c r="S155" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T155" s="11">
         <v>10</v>
@@ -15211,7 +15198,7 @@
         <v>10</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T156" s="11">
         <v>10</v>
@@ -15288,7 +15275,7 @@
         <v>10</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T157" s="11">
         <v>10</v>
@@ -15365,7 +15352,7 @@
         <v>10</v>
       </c>
       <c r="S158" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T158" s="11">
         <v>10</v>
@@ -15442,7 +15429,7 @@
         <v>10</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T159" s="11">
         <v>10</v>
@@ -15519,7 +15506,7 @@
         <v>10</v>
       </c>
       <c r="S160" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T160" s="11">
         <v>10</v>
@@ -15596,7 +15583,7 @@
         <v>10</v>
       </c>
       <c r="S161" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T161" s="11">
         <v>10</v>
@@ -15673,7 +15660,7 @@
         <v>10</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T162" s="11">
         <v>10</v>
@@ -15750,7 +15737,7 @@
         <v>10</v>
       </c>
       <c r="S163" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T163" s="11">
         <v>10</v>
@@ -15827,7 +15814,7 @@
         <v>10</v>
       </c>
       <c r="S164" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T164" s="11">
         <v>10</v>
@@ -15904,7 +15891,7 @@
         <v>10</v>
       </c>
       <c r="S165" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T165" s="11">
         <v>10</v>
@@ -15981,7 +15968,7 @@
         <v>10</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T166" s="11">
         <v>10</v>
@@ -16058,7 +16045,7 @@
         <v>10</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T167" s="11">
         <v>10</v>
@@ -16135,7 +16122,7 @@
         <v>10</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T168" s="11">
         <v>10</v>
@@ -16212,7 +16199,7 @@
         <v>10</v>
       </c>
       <c r="S169" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T169" s="11">
         <v>10</v>
@@ -16289,7 +16276,7 @@
         <v>10</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T170" s="11">
         <v>10</v>
@@ -16366,7 +16353,7 @@
         <v>10</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T171" s="11">
         <v>10</v>
@@ -16443,7 +16430,7 @@
         <v>10</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T172" s="11">
         <v>10</v>
@@ -16520,7 +16507,7 @@
         <v>10</v>
       </c>
       <c r="S173" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T173" s="11">
         <v>10</v>
@@ -16597,7 +16584,7 @@
         <v>10</v>
       </c>
       <c r="S174" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T174" s="11">
         <v>10</v>
@@ -16674,7 +16661,7 @@
         <v>10</v>
       </c>
       <c r="S175" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T175" s="11">
         <v>10</v>
@@ -16751,7 +16738,7 @@
         <v>10</v>
       </c>
       <c r="S176" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T176" s="11">
         <v>10</v>
@@ -16828,7 +16815,7 @@
         <v>10</v>
       </c>
       <c r="S177" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T177" s="11">
         <v>10</v>
@@ -16905,7 +16892,7 @@
         <v>10</v>
       </c>
       <c r="S178" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T178" s="11">
         <v>10</v>
@@ -16982,7 +16969,7 @@
         <v>10</v>
       </c>
       <c r="S179" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T179" s="11">
         <v>10</v>
@@ -17059,7 +17046,7 @@
         <v>10</v>
       </c>
       <c r="S180" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T180" s="11">
         <v>10</v>
@@ -17136,7 +17123,7 @@
         <v>10</v>
       </c>
       <c r="S181" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T181" s="11">
         <v>10</v>
@@ -17213,7 +17200,7 @@
         <v>10</v>
       </c>
       <c r="S182" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T182" s="11">
         <v>10</v>
@@ -17290,7 +17277,7 @@
         <v>10</v>
       </c>
       <c r="S183" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T183" s="11">
         <v>10</v>
@@ -17367,7 +17354,7 @@
         <v>10</v>
       </c>
       <c r="S184" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T184" s="11">
         <v>10</v>
@@ -17444,7 +17431,7 @@
         <v>10</v>
       </c>
       <c r="S185" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T185" s="11">
         <v>10</v>
@@ -17521,7 +17508,7 @@
         <v>10</v>
       </c>
       <c r="S186" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T186" s="11">
         <v>10</v>
@@ -17598,7 +17585,7 @@
         <v>10</v>
       </c>
       <c r="S187" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T187" s="11">
         <v>10</v>
@@ -17675,7 +17662,7 @@
         <v>10</v>
       </c>
       <c r="S188" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T188" s="11">
         <v>10</v>
@@ -17752,7 +17739,7 @@
         <v>10</v>
       </c>
       <c r="S189" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T189" s="11">
         <v>10</v>
@@ -17829,7 +17816,7 @@
         <v>10</v>
       </c>
       <c r="S190" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T190" s="11">
         <v>10</v>
@@ -17906,7 +17893,7 @@
         <v>10</v>
       </c>
       <c r="S191" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T191" s="11">
         <v>10</v>
@@ -17983,7 +17970,7 @@
         <v>10</v>
       </c>
       <c r="S192" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T192" s="11">
         <v>10</v>
@@ -18060,7 +18047,7 @@
         <v>10</v>
       </c>
       <c r="S193" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T193" s="11">
         <v>10</v>
@@ -18137,7 +18124,7 @@
         <v>10</v>
       </c>
       <c r="S194" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T194" s="11">
         <v>10</v>
@@ -18214,7 +18201,7 @@
         <v>10</v>
       </c>
       <c r="S195" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T195" s="11">
         <v>10</v>
@@ -18291,7 +18278,7 @@
         <v>10</v>
       </c>
       <c r="S196" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T196" s="11">
         <v>10</v>
@@ -18368,7 +18355,7 @@
         <v>10</v>
       </c>
       <c r="S197" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T197" s="11">
         <v>10</v>
@@ -18445,7 +18432,7 @@
         <v>10</v>
       </c>
       <c r="S198" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T198" s="11">
         <v>10</v>
@@ -18522,7 +18509,7 @@
         <v>10</v>
       </c>
       <c r="S199" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T199" s="11">
         <v>10</v>
@@ -18599,7 +18586,7 @@
         <v>10</v>
       </c>
       <c r="S200" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T200" s="11">
         <v>10</v>
@@ -18676,7 +18663,7 @@
         <v>10</v>
       </c>
       <c r="S201" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T201" s="11">
         <v>10</v>
@@ -18753,7 +18740,7 @@
         <v>10</v>
       </c>
       <c r="S202" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T202" s="11">
         <v>10</v>
@@ -18830,7 +18817,7 @@
         <v>10</v>
       </c>
       <c r="S203" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T203" s="11">
         <v>10</v>
@@ -18907,7 +18894,7 @@
         <v>10</v>
       </c>
       <c r="S204" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T204" s="11">
         <v>10</v>
@@ -18984,7 +18971,7 @@
         <v>10</v>
       </c>
       <c r="S205" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T205" s="11">
         <v>10</v>
@@ -19061,7 +19048,7 @@
         <v>10</v>
       </c>
       <c r="S206" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T206" s="11">
         <v>10</v>
@@ -19138,7 +19125,7 @@
         <v>10</v>
       </c>
       <c r="S207" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T207" s="11">
         <v>10</v>
@@ -19215,7 +19202,7 @@
         <v>10</v>
       </c>
       <c r="S208" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T208" s="11">
         <v>10</v>
@@ -19292,7 +19279,7 @@
         <v>10</v>
       </c>
       <c r="S209" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T209" s="11">
         <v>10</v>
@@ -19369,7 +19356,7 @@
         <v>10</v>
       </c>
       <c r="S210" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T210" s="11">
         <v>10</v>
@@ -19446,7 +19433,7 @@
         <v>10</v>
       </c>
       <c r="S211" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T211" s="11">
         <v>10</v>
@@ -19523,7 +19510,7 @@
         <v>10</v>
       </c>
       <c r="S212" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T212" s="11">
         <v>10</v>
@@ -19600,7 +19587,7 @@
         <v>10</v>
       </c>
       <c r="S213" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T213" s="11">
         <v>10</v>
@@ -19677,7 +19664,7 @@
         <v>10</v>
       </c>
       <c r="S214" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T214" s="11">
         <v>10</v>
@@ -19754,7 +19741,7 @@
         <v>10</v>
       </c>
       <c r="S215" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T215" s="11">
         <v>10</v>
@@ -19831,7 +19818,7 @@
         <v>10</v>
       </c>
       <c r="S216" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T216" s="11">
         <v>10</v>
@@ -19908,7 +19895,7 @@
         <v>10</v>
       </c>
       <c r="S217" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T217" s="11">
         <v>10</v>
@@ -19985,7 +19972,7 @@
         <v>10</v>
       </c>
       <c r="S218" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T218" s="11">
         <v>10</v>
@@ -20062,7 +20049,7 @@
         <v>10</v>
       </c>
       <c r="S219" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T219" s="11">
         <v>10</v>
@@ -20139,7 +20126,7 @@
         <v>10</v>
       </c>
       <c r="S220" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T220" s="11">
         <v>10</v>
@@ -20216,7 +20203,7 @@
         <v>10</v>
       </c>
       <c r="S221" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T221" s="11">
         <v>10</v>
@@ -20293,7 +20280,7 @@
         <v>10</v>
       </c>
       <c r="S222" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T222" s="11">
         <v>10</v>
@@ -20370,7 +20357,7 @@
         <v>10</v>
       </c>
       <c r="S223" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T223" s="11">
         <v>10</v>
@@ -20447,7 +20434,7 @@
         <v>10</v>
       </c>
       <c r="S224" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T224" s="11">
         <v>10</v>
@@ -20524,7 +20511,7 @@
         <v>10</v>
       </c>
       <c r="S225" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T225" s="11">
         <v>10</v>
@@ -20601,7 +20588,7 @@
         <v>10</v>
       </c>
       <c r="S226" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T226" s="11">
         <v>10</v>
@@ -20678,7 +20665,7 @@
         <v>10</v>
       </c>
       <c r="S227" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T227" s="11">
         <v>10</v>
@@ -20755,7 +20742,7 @@
         <v>10</v>
       </c>
       <c r="S228" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T228" s="11">
         <v>10</v>
@@ -20832,7 +20819,7 @@
         <v>10</v>
       </c>
       <c r="S229" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T229" s="11">
         <v>10</v>
@@ -20909,7 +20896,7 @@
         <v>10</v>
       </c>
       <c r="S230" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T230" s="11">
         <v>10</v>
@@ -20986,7 +20973,7 @@
         <v>10</v>
       </c>
       <c r="S231" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T231" s="11">
         <v>10</v>
@@ -21063,7 +21050,7 @@
         <v>10</v>
       </c>
       <c r="S232" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T232" s="11">
         <v>10</v>
@@ -21140,7 +21127,7 @@
         <v>10</v>
       </c>
       <c r="S233" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T233" s="11">
         <v>10</v>
@@ -21217,7 +21204,7 @@
         <v>10</v>
       </c>
       <c r="S234" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T234" s="11">
         <v>10</v>
@@ -21294,7 +21281,7 @@
         <v>10</v>
       </c>
       <c r="S235" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T235" s="11">
         <v>10</v>
@@ -21371,7 +21358,7 @@
         <v>10</v>
       </c>
       <c r="S236" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T236" s="11">
         <v>10</v>
@@ -21448,7 +21435,7 @@
         <v>10</v>
       </c>
       <c r="S237" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T237" s="11">
         <v>10</v>
@@ -21525,7 +21512,7 @@
         <v>10</v>
       </c>
       <c r="S238" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T238" s="11">
         <v>10</v>
@@ -21602,7 +21589,7 @@
         <v>10</v>
       </c>
       <c r="S239" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T239" s="11">
         <v>10</v>
@@ -21679,7 +21666,7 @@
         <v>10</v>
       </c>
       <c r="S240" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T240" s="11">
         <v>10</v>
@@ -21756,7 +21743,7 @@
         <v>10</v>
       </c>
       <c r="S241" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T241" s="11">
         <v>10</v>
@@ -21833,7 +21820,7 @@
         <v>10</v>
       </c>
       <c r="S242" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T242" s="11">
         <v>10</v>
@@ -21910,7 +21897,7 @@
         <v>10</v>
       </c>
       <c r="S243" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T243" s="11">
         <v>10</v>
@@ -21987,7 +21974,7 @@
         <v>10</v>
       </c>
       <c r="S244" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T244" s="11">
         <v>10</v>
@@ -22064,7 +22051,7 @@
         <v>10</v>
       </c>
       <c r="S245" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T245" s="11">
         <v>10</v>
@@ -22141,7 +22128,7 @@
         <v>10</v>
       </c>
       <c r="S246" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T246" s="11">
         <v>10</v>
@@ -22218,7 +22205,7 @@
         <v>10</v>
       </c>
       <c r="S247" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T247" s="11">
         <v>10</v>
@@ -22295,7 +22282,7 @@
         <v>10</v>
       </c>
       <c r="S248" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T248" s="11">
         <v>10</v>
@@ -22372,7 +22359,7 @@
         <v>10</v>
       </c>
       <c r="S249" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T249" s="11">
         <v>10</v>
@@ -22449,7 +22436,7 @@
         <v>10</v>
       </c>
       <c r="S250" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T250" s="11">
         <v>10</v>
@@ -22526,7 +22513,7 @@
         <v>10</v>
       </c>
       <c r="S251" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T251" s="11">
         <v>10</v>
@@ -22603,7 +22590,7 @@
         <v>10</v>
       </c>
       <c r="S252" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T252" s="11">
         <v>10</v>
@@ -22680,7 +22667,7 @@
         <v>10</v>
       </c>
       <c r="S253" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T253" s="11">
         <v>10</v>
@@ -22757,7 +22744,7 @@
         <v>10</v>
       </c>
       <c r="S254" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T254" s="11">
         <v>10</v>
@@ -22834,7 +22821,7 @@
         <v>10</v>
       </c>
       <c r="S255" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T255" s="11">
         <v>10</v>
@@ -22911,7 +22898,7 @@
         <v>10</v>
       </c>
       <c r="S256" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T256" s="11">
         <v>10</v>
@@ -22988,7 +22975,7 @@
         <v>10</v>
       </c>
       <c r="S257" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T257" s="11">
         <v>10</v>
@@ -23065,7 +23052,7 @@
         <v>10</v>
       </c>
       <c r="S258" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T258" s="11">
         <v>10</v>
@@ -23142,7 +23129,7 @@
         <v>10</v>
       </c>
       <c r="S259" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T259" s="11">
         <v>10</v>
@@ -23219,7 +23206,7 @@
         <v>10</v>
       </c>
       <c r="S260" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T260" s="11">
         <v>10</v>
@@ -23296,7 +23283,7 @@
         <v>10</v>
       </c>
       <c r="S261" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T261" s="11">
         <v>10</v>
@@ -23373,7 +23360,7 @@
         <v>10</v>
       </c>
       <c r="S262" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T262" s="11">
         <v>10</v>
@@ -23450,7 +23437,7 @@
         <v>10</v>
       </c>
       <c r="S263" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T263" s="11">
         <v>10</v>
@@ -23527,7 +23514,7 @@
         <v>10</v>
       </c>
       <c r="S264" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T264" s="11">
         <v>10</v>
@@ -23604,7 +23591,7 @@
         <v>10</v>
       </c>
       <c r="S265" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T265" s="11">
         <v>10</v>
@@ -23681,7 +23668,7 @@
         <v>10</v>
       </c>
       <c r="S266" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T266" s="11">
         <v>10</v>
@@ -23758,7 +23745,7 @@
         <v>10</v>
       </c>
       <c r="S267" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T267" s="11">
         <v>10</v>
@@ -23835,7 +23822,7 @@
         <v>10</v>
       </c>
       <c r="S268" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T268" s="11">
         <v>10</v>
@@ -23912,7 +23899,7 @@
         <v>10</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T269" s="11">
         <v>10</v>
@@ -23989,7 +23976,7 @@
         <v>10</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T270" s="11">
         <v>10</v>
@@ -24066,7 +24053,7 @@
         <v>10</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T271" s="11">
         <v>10</v>
@@ -24143,7 +24130,7 @@
         <v>10</v>
       </c>
       <c r="S272" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T272" s="11">
         <v>10</v>
@@ -24220,7 +24207,7 @@
         <v>10</v>
       </c>
       <c r="S273" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T273" s="11">
         <v>10</v>
@@ -24297,7 +24284,7 @@
         <v>10</v>
       </c>
       <c r="S274" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T274" s="11">
         <v>10</v>
@@ -24374,7 +24361,7 @@
         <v>10</v>
       </c>
       <c r="S275" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T275" s="11">
         <v>10</v>
@@ -24451,7 +24438,7 @@
         <v>10</v>
       </c>
       <c r="S276" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T276" s="11">
         <v>10</v>
@@ -24528,7 +24515,7 @@
         <v>10</v>
       </c>
       <c r="S277" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T277" s="11">
         <v>10</v>
@@ -24605,7 +24592,7 @@
         <v>10</v>
       </c>
       <c r="S278" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T278" s="11">
         <v>10</v>
@@ -24682,7 +24669,7 @@
         <v>10</v>
       </c>
       <c r="S279" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T279" s="11">
         <v>10</v>
@@ -24759,7 +24746,7 @@
         <v>10</v>
       </c>
       <c r="S280" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T280" s="11">
         <v>10</v>
@@ -24836,7 +24823,7 @@
         <v>10</v>
       </c>
       <c r="S281" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T281" s="11">
         <v>10</v>
@@ -24913,7 +24900,7 @@
         <v>10</v>
       </c>
       <c r="S282" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T282" s="11">
         <v>10</v>
@@ -24990,7 +24977,7 @@
         <v>10</v>
       </c>
       <c r="S283" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T283" s="11">
         <v>10</v>
@@ -25067,7 +25054,7 @@
         <v>10</v>
       </c>
       <c r="S284" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T284" s="11">
         <v>10</v>
@@ -25144,7 +25131,7 @@
         <v>10</v>
       </c>
       <c r="S285" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T285" s="11">
         <v>10</v>
@@ -25221,7 +25208,7 @@
         <v>10</v>
       </c>
       <c r="S286" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T286" s="11">
         <v>10</v>
@@ -25298,7 +25285,7 @@
         <v>10</v>
       </c>
       <c r="S287" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T287" s="11">
         <v>10</v>
@@ -25375,7 +25362,7 @@
         <v>10</v>
       </c>
       <c r="S288" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T288" s="11">
         <v>10</v>
@@ -25452,7 +25439,7 @@
         <v>10</v>
       </c>
       <c r="S289" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T289" s="11">
         <v>10</v>
@@ -25529,7 +25516,7 @@
         <v>10</v>
       </c>
       <c r="S290" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T290" s="11">
         <v>10</v>
@@ -25606,7 +25593,7 @@
         <v>10</v>
       </c>
       <c r="S291" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T291" s="11">
         <v>10</v>
@@ -25683,7 +25670,7 @@
         <v>10</v>
       </c>
       <c r="S292" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T292" s="11">
         <v>10</v>
@@ -25760,7 +25747,7 @@
         <v>10</v>
       </c>
       <c r="S293" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T293" s="11">
         <v>10</v>
@@ -25837,7 +25824,7 @@
         <v>10</v>
       </c>
       <c r="S294" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T294" s="11">
         <v>10</v>
@@ -25914,7 +25901,7 @@
         <v>10</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T295" s="11">
         <v>10</v>
@@ -25991,7 +25978,7 @@
         <v>10</v>
       </c>
       <c r="S296" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T296" s="11">
         <v>10</v>
@@ -26068,7 +26055,7 @@
         <v>10</v>
       </c>
       <c r="S297" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T297" s="11">
         <v>10</v>
@@ -26145,7 +26132,7 @@
         <v>10</v>
       </c>
       <c r="S298" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T298" s="11">
         <v>10</v>
@@ -26222,7 +26209,7 @@
         <v>10</v>
       </c>
       <c r="S299" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T299" s="11">
         <v>10</v>
@@ -26299,7 +26286,7 @@
         <v>10</v>
       </c>
       <c r="S300" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T300" s="11">
         <v>10</v>
@@ -26376,7 +26363,7 @@
         <v>10</v>
       </c>
       <c r="S301" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T301" s="11">
         <v>10</v>
@@ -26453,7 +26440,7 @@
         <v>10</v>
       </c>
       <c r="S302" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T302" s="11">
         <v>10</v>
@@ -26530,7 +26517,7 @@
         <v>10</v>
       </c>
       <c r="S303" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T303" s="11">
         <v>10</v>
@@ -26607,7 +26594,7 @@
         <v>10</v>
       </c>
       <c r="S304" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T304" s="11">
         <v>10</v>
@@ -26684,7 +26671,7 @@
         <v>10</v>
       </c>
       <c r="S305" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T305" s="11">
         <v>10</v>
@@ -26761,7 +26748,7 @@
         <v>10</v>
       </c>
       <c r="S306" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T306" s="11">
         <v>10</v>
@@ -26838,7 +26825,7 @@
         <v>10</v>
       </c>
       <c r="S307" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T307" s="11">
         <v>10</v>
@@ -26915,7 +26902,7 @@
         <v>10</v>
       </c>
       <c r="S308" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T308" s="11">
         <v>10</v>
@@ -26992,7 +26979,7 @@
         <v>10</v>
       </c>
       <c r="S309" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T309" s="11">
         <v>10</v>
@@ -27069,7 +27056,7 @@
         <v>10</v>
       </c>
       <c r="S310" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T310" s="11">
         <v>10</v>
@@ -27146,7 +27133,7 @@
         <v>10</v>
       </c>
       <c r="S311" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T311" s="11">
         <v>10</v>
@@ -27223,7 +27210,7 @@
         <v>10</v>
       </c>
       <c r="S312" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T312" s="11">
         <v>10</v>
@@ -27300,7 +27287,7 @@
         <v>10</v>
       </c>
       <c r="S313" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T313" s="11">
         <v>10</v>
@@ -27377,7 +27364,7 @@
         <v>10</v>
       </c>
       <c r="S314" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T314" s="11">
         <v>10</v>
@@ -27454,7 +27441,7 @@
         <v>10</v>
       </c>
       <c r="S315" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T315" s="11">
         <v>10</v>
@@ -27531,7 +27518,7 @@
         <v>10</v>
       </c>
       <c r="S316" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T316" s="11">
         <v>10</v>
@@ -27608,7 +27595,7 @@
         <v>10</v>
       </c>
       <c r="S317" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T317" s="11">
         <v>10</v>
@@ -27685,7 +27672,7 @@
         <v>10</v>
       </c>
       <c r="S318" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T318" s="11">
         <v>10</v>
@@ -27762,7 +27749,7 @@
         <v>10</v>
       </c>
       <c r="S319" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T319" s="11">
         <v>10</v>
@@ -27839,7 +27826,7 @@
         <v>10</v>
       </c>
       <c r="S320" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T320" s="11">
         <v>10</v>
@@ -27916,7 +27903,7 @@
         <v>10</v>
       </c>
       <c r="S321" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T321" s="11">
         <v>10</v>
@@ -27993,7 +27980,7 @@
         <v>10</v>
       </c>
       <c r="S322" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T322" s="11">
         <v>10</v>
@@ -28070,7 +28057,7 @@
         <v>10</v>
       </c>
       <c r="S323" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T323" s="11">
         <v>10</v>
@@ -28147,7 +28134,7 @@
         <v>10</v>
       </c>
       <c r="S324" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T324" s="11">
         <v>10</v>
@@ -28224,7 +28211,7 @@
         <v>10</v>
       </c>
       <c r="S325" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T325" s="11">
         <v>10</v>
@@ -28301,7 +28288,7 @@
         <v>10</v>
       </c>
       <c r="S326" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T326" s="11">
         <v>10</v>
@@ -28378,7 +28365,7 @@
         <v>10</v>
       </c>
       <c r="S327" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T327" s="11">
         <v>10</v>
@@ -28455,7 +28442,7 @@
         <v>10</v>
       </c>
       <c r="S328" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T328" s="11">
         <v>10</v>
@@ -28532,7 +28519,7 @@
         <v>10</v>
       </c>
       <c r="S329" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T329" s="11">
         <v>10</v>
@@ -28609,7 +28596,7 @@
         <v>10</v>
       </c>
       <c r="S330" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T330" s="11">
         <v>10</v>
@@ -28686,7 +28673,7 @@
         <v>10</v>
       </c>
       <c r="S331" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T331" s="11">
         <v>10</v>
@@ -28763,7 +28750,7 @@
         <v>10</v>
       </c>
       <c r="S332" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T332" s="11">
         <v>10</v>
@@ -28840,7 +28827,7 @@
         <v>10</v>
       </c>
       <c r="S333" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T333" s="11">
         <v>10</v>
@@ -28917,7 +28904,7 @@
         <v>10</v>
       </c>
       <c r="S334" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T334" s="11">
         <v>10</v>
@@ -28994,7 +28981,7 @@
         <v>10</v>
       </c>
       <c r="S335" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T335" s="11">
         <v>10</v>
@@ -29071,7 +29058,7 @@
         <v>10</v>
       </c>
       <c r="S336" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T336" s="11">
         <v>10</v>
@@ -29148,7 +29135,7 @@
         <v>10</v>
       </c>
       <c r="S337" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T337" s="11">
         <v>10</v>
@@ -29225,7 +29212,7 @@
         <v>10</v>
       </c>
       <c r="S338" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T338" s="11">
         <v>10</v>
@@ -29302,7 +29289,7 @@
         <v>10</v>
       </c>
       <c r="S339" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T339" s="11">
         <v>10</v>
@@ -29379,7 +29366,7 @@
         <v>10</v>
       </c>
       <c r="S340" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T340" s="11">
         <v>10</v>
@@ -29456,7 +29443,7 @@
         <v>10</v>
       </c>
       <c r="S341" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T341" s="11">
         <v>10</v>
@@ -29533,7 +29520,7 @@
         <v>10</v>
       </c>
       <c r="S342" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T342" s="11">
         <v>10</v>
@@ -29610,7 +29597,7 @@
         <v>10</v>
       </c>
       <c r="S343" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T343" s="11">
         <v>10</v>
@@ -29687,7 +29674,7 @@
         <v>10</v>
       </c>
       <c r="S344" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T344" s="11">
         <v>10</v>
@@ -29764,7 +29751,7 @@
         <v>10</v>
       </c>
       <c r="S345" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T345" s="11">
         <v>10</v>
@@ -29841,7 +29828,7 @@
         <v>10</v>
       </c>
       <c r="S346" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T346" s="11">
         <v>10</v>
@@ -29918,7 +29905,7 @@
         <v>10</v>
       </c>
       <c r="S347" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T347" s="11">
         <v>10</v>
@@ -29995,7 +29982,7 @@
         <v>10</v>
       </c>
       <c r="S348" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T348" s="11">
         <v>10</v>
@@ -30072,7 +30059,7 @@
         <v>10</v>
       </c>
       <c r="S349" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T349" s="11">
         <v>10</v>
@@ -30149,7 +30136,7 @@
         <v>10</v>
       </c>
       <c r="S350" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T350" s="11">
         <v>10</v>
@@ -30226,7 +30213,7 @@
         <v>10</v>
       </c>
       <c r="S351" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T351" s="11">
         <v>10</v>
@@ -30303,7 +30290,7 @@
         <v>10</v>
       </c>
       <c r="S352" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T352" s="11">
         <v>10</v>
@@ -30380,7 +30367,7 @@
         <v>10</v>
       </c>
       <c r="S353" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T353" s="11">
         <v>10</v>
@@ -30457,7 +30444,7 @@
         <v>10</v>
       </c>
       <c r="S354" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T354" s="11">
         <v>10</v>
@@ -30534,7 +30521,7 @@
         <v>10</v>
       </c>
       <c r="S355" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T355" s="11">
         <v>10</v>
@@ -30611,7 +30598,7 @@
         <v>10</v>
       </c>
       <c r="S356" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T356" s="11">
         <v>10</v>
@@ -30688,7 +30675,7 @@
         <v>10</v>
       </c>
       <c r="S357" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T357" s="11">
         <v>10</v>
@@ -30765,7 +30752,7 @@
         <v>10</v>
       </c>
       <c r="S358" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T358" s="11">
         <v>10</v>
@@ -30842,7 +30829,7 @@
         <v>10</v>
       </c>
       <c r="S359" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T359" s="11">
         <v>10</v>
@@ -30919,7 +30906,7 @@
         <v>10</v>
       </c>
       <c r="S360" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T360" s="11">
         <v>10</v>
@@ -30996,7 +30983,7 @@
         <v>10</v>
       </c>
       <c r="S361" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T361" s="11">
         <v>10</v>
@@ -31073,7 +31060,7 @@
         <v>10</v>
       </c>
       <c r="S362" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T362" s="11">
         <v>10</v>
@@ -31150,7 +31137,7 @@
         <v>10</v>
       </c>
       <c r="S363" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T363" s="11">
         <v>10</v>
@@ -31227,7 +31214,7 @@
         <v>10</v>
       </c>
       <c r="S364" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T364" s="11">
         <v>10</v>
@@ -31304,7 +31291,7 @@
         <v>10</v>
       </c>
       <c r="S365" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T365" s="11">
         <v>10</v>
@@ -31381,7 +31368,7 @@
         <v>10</v>
       </c>
       <c r="S366" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T366" s="11">
         <v>10</v>
@@ -31458,7 +31445,7 @@
         <v>10</v>
       </c>
       <c r="S367" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T367" s="11">
         <v>10</v>
@@ -31535,7 +31522,7 @@
         <v>10</v>
       </c>
       <c r="S368" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T368" s="11">
         <v>10</v>
@@ -31612,7 +31599,7 @@
         <v>10</v>
       </c>
       <c r="S369" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T369" s="11">
         <v>10</v>
@@ -31689,7 +31676,7 @@
         <v>10</v>
       </c>
       <c r="S370" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T370" s="11">
         <v>10</v>
@@ -31766,7 +31753,7 @@
         <v>10</v>
       </c>
       <c r="S371" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T371" s="11">
         <v>10</v>
@@ -31843,7 +31830,7 @@
         <v>10</v>
       </c>
       <c r="S372" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T372" s="11">
         <v>10</v>
@@ -31920,7 +31907,7 @@
         <v>10</v>
       </c>
       <c r="S373" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T373" s="11">
         <v>10</v>
@@ -31997,7 +31984,7 @@
         <v>10</v>
       </c>
       <c r="S374" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T374" s="11">
         <v>10</v>
@@ -32074,7 +32061,7 @@
         <v>10</v>
       </c>
       <c r="S375" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T375" s="11">
         <v>10</v>
@@ -32151,7 +32138,7 @@
         <v>10</v>
       </c>
       <c r="S376" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T376" s="11">
         <v>10</v>
@@ -32228,7 +32215,7 @@
         <v>10</v>
       </c>
       <c r="S377" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T377" s="11">
         <v>10</v>
@@ -32305,7 +32292,7 @@
         <v>10</v>
       </c>
       <c r="S378" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T378" s="11">
         <v>10</v>
@@ -32382,7 +32369,7 @@
         <v>10</v>
       </c>
       <c r="S379" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T379" s="11">
         <v>10</v>
@@ -32459,7 +32446,7 @@
         <v>10</v>
       </c>
       <c r="S380" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T380" s="11">
         <v>10</v>
@@ -32536,7 +32523,7 @@
         <v>10</v>
       </c>
       <c r="S381" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T381" s="11">
         <v>10</v>
@@ -32613,7 +32600,7 @@
         <v>10</v>
       </c>
       <c r="S382" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T382" s="11">
         <v>10</v>
@@ -32690,7 +32677,7 @@
         <v>10</v>
       </c>
       <c r="S383" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T383" s="11">
         <v>10</v>
@@ -32767,7 +32754,7 @@
         <v>10</v>
       </c>
       <c r="S384" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T384" s="11">
         <v>10</v>
@@ -32844,7 +32831,7 @@
         <v>10</v>
       </c>
       <c r="S385" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T385" s="11">
         <v>10</v>
@@ -32921,7 +32908,7 @@
         <v>10</v>
       </c>
       <c r="S386" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T386" s="11">
         <v>10</v>
@@ -32998,7 +32985,7 @@
         <v>10</v>
       </c>
       <c r="S387" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T387" s="11">
         <v>10</v>
@@ -33075,7 +33062,7 @@
         <v>10</v>
       </c>
       <c r="S388" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T388" s="11">
         <v>10</v>
@@ -33152,7 +33139,7 @@
         <v>10</v>
       </c>
       <c r="S389" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T389" s="11">
         <v>10</v>
@@ -33229,7 +33216,7 @@
         <v>10</v>
       </c>
       <c r="S390" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T390" s="11">
         <v>10</v>
@@ -33306,7 +33293,7 @@
         <v>10</v>
       </c>
       <c r="S391" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T391" s="11">
         <v>10</v>
@@ -33383,7 +33370,7 @@
         <v>10</v>
       </c>
       <c r="S392" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T392" s="11">
         <v>10</v>
@@ -33460,7 +33447,7 @@
         <v>10</v>
       </c>
       <c r="S393" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T393" s="11">
         <v>10</v>
@@ -33537,7 +33524,7 @@
         <v>10</v>
       </c>
       <c r="S394" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T394" s="11">
         <v>10</v>
@@ -33614,7 +33601,7 @@
         <v>10</v>
       </c>
       <c r="S395" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T395" s="11">
         <v>10</v>
@@ -33691,7 +33678,7 @@
         <v>10</v>
       </c>
       <c r="S396" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T396" s="11">
         <v>10</v>
@@ -33768,7 +33755,7 @@
         <v>10</v>
       </c>
       <c r="S397" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T397" s="11">
         <v>10</v>
@@ -33845,7 +33832,7 @@
         <v>10</v>
       </c>
       <c r="S398" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T398" s="11">
         <v>10</v>
@@ -33922,7 +33909,7 @@
         <v>10</v>
       </c>
       <c r="S399" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T399" s="11">
         <v>10</v>
@@ -33999,7 +33986,7 @@
         <v>10</v>
       </c>
       <c r="S400" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T400" s="11">
         <v>10</v>
@@ -34076,7 +34063,7 @@
         <v>10</v>
       </c>
       <c r="S401" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T401" s="11">
         <v>10</v>
@@ -34153,7 +34140,7 @@
         <v>10</v>
       </c>
       <c r="S402" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T402" s="11">
         <v>10</v>
@@ -34230,7 +34217,7 @@
         <v>10</v>
       </c>
       <c r="S403" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T403" s="11">
         <v>10</v>
@@ -34307,7 +34294,7 @@
         <v>10</v>
       </c>
       <c r="S404" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T404" s="11">
         <v>10</v>
@@ -34384,7 +34371,7 @@
         <v>10</v>
       </c>
       <c r="S405" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T405" s="11">
         <v>10</v>
@@ -34461,7 +34448,7 @@
         <v>10</v>
       </c>
       <c r="S406" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T406" s="11">
         <v>10</v>
@@ -34538,7 +34525,7 @@
         <v>10</v>
       </c>
       <c r="S407" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T407" s="11">
         <v>10</v>
@@ -34615,7 +34602,7 @@
         <v>10</v>
       </c>
       <c r="S408" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T408" s="11">
         <v>10</v>
@@ -34692,7 +34679,7 @@
         <v>10</v>
       </c>
       <c r="S409" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T409" s="11">
         <v>10</v>
@@ -34769,7 +34756,7 @@
         <v>10</v>
       </c>
       <c r="S410" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T410" s="11">
         <v>10</v>
@@ -34846,7 +34833,7 @@
         <v>10</v>
       </c>
       <c r="S411" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T411" s="11">
         <v>10</v>
@@ -34923,7 +34910,7 @@
         <v>10</v>
       </c>
       <c r="S412" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T412" s="11">
         <v>10</v>
@@ -35000,7 +34987,7 @@
         <v>10</v>
       </c>
       <c r="S413" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T413" s="11">
         <v>10</v>
@@ -35077,7 +35064,7 @@
         <v>10</v>
       </c>
       <c r="S414" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T414" s="11">
         <v>10</v>
@@ -35154,7 +35141,7 @@
         <v>10</v>
       </c>
       <c r="S415" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T415" s="11">
         <v>10</v>
@@ -35231,7 +35218,7 @@
         <v>10</v>
       </c>
       <c r="S416" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T416" s="11">
         <v>10</v>
@@ -35308,7 +35295,7 @@
         <v>10</v>
       </c>
       <c r="S417" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T417" s="11">
         <v>10</v>
@@ -35385,7 +35372,7 @@
         <v>10</v>
       </c>
       <c r="S418" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T418" s="11">
         <v>10</v>
@@ -35462,7 +35449,7 @@
         <v>10</v>
       </c>
       <c r="S419" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T419" s="11">
         <v>10</v>
@@ -35539,7 +35526,7 @@
         <v>10</v>
       </c>
       <c r="S420" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T420" s="11">
         <v>10</v>
@@ -35616,7 +35603,7 @@
         <v>10</v>
       </c>
       <c r="S421" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T421" s="11">
         <v>10</v>
@@ -35693,7 +35680,7 @@
         <v>10</v>
       </c>
       <c r="S422" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T422" s="11">
         <v>10</v>
@@ -35770,7 +35757,7 @@
         <v>10</v>
       </c>
       <c r="S423" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T423" s="11">
         <v>10</v>
@@ -35847,7 +35834,7 @@
         <v>10</v>
       </c>
       <c r="S424" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T424" s="11">
         <v>10</v>
@@ -35924,7 +35911,7 @@
         <v>10</v>
       </c>
       <c r="S425" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T425" s="11">
         <v>10</v>
@@ -36001,7 +35988,7 @@
         <v>10</v>
       </c>
       <c r="S426" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T426" s="11">
         <v>10</v>
@@ -36078,7 +36065,7 @@
         <v>10</v>
       </c>
       <c r="S427" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T427" s="11">
         <v>10</v>
@@ -36155,7 +36142,7 @@
         <v>10</v>
       </c>
       <c r="S428" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T428" s="11">
         <v>10</v>
@@ -36232,7 +36219,7 @@
         <v>10</v>
       </c>
       <c r="S429" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T429" s="11">
         <v>10</v>
@@ -36309,7 +36296,7 @@
         <v>10</v>
       </c>
       <c r="S430" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T430" s="11">
         <v>10</v>
@@ -36386,7 +36373,7 @@
         <v>10</v>
       </c>
       <c r="S431" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T431" s="11">
         <v>10</v>
@@ -36463,7 +36450,7 @@
         <v>10</v>
       </c>
       <c r="S432" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T432" s="11">
         <v>10</v>
@@ -36540,7 +36527,7 @@
         <v>10</v>
       </c>
       <c r="S433" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T433" s="11">
         <v>10</v>
@@ -36617,7 +36604,7 @@
         <v>10</v>
       </c>
       <c r="S434" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T434" s="11">
         <v>10</v>
@@ -36694,7 +36681,7 @@
         <v>10</v>
       </c>
       <c r="S435" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T435" s="11">
         <v>10</v>
@@ -36771,7 +36758,7 @@
         <v>10</v>
       </c>
       <c r="S436" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T436" s="11">
         <v>10</v>
@@ -36848,7 +36835,7 @@
         <v>10</v>
       </c>
       <c r="S437" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T437" s="11">
         <v>10</v>
@@ -36925,7 +36912,7 @@
         <v>10</v>
       </c>
       <c r="S438" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T438" s="11">
         <v>10</v>
@@ -37002,7 +36989,7 @@
         <v>10</v>
       </c>
       <c r="S439" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T439" s="11">
         <v>10</v>
@@ -37079,7 +37066,7 @@
         <v>10</v>
       </c>
       <c r="S440" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T440" s="11">
         <v>10</v>
@@ -37156,7 +37143,7 @@
         <v>10</v>
       </c>
       <c r="S441" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T441" s="11">
         <v>10</v>
@@ -37233,7 +37220,7 @@
         <v>10</v>
       </c>
       <c r="S442" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T442" s="11">
         <v>10</v>
@@ -37310,7 +37297,7 @@
         <v>10</v>
       </c>
       <c r="S443" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T443" s="11">
         <v>10</v>
@@ -37387,7 +37374,7 @@
         <v>10</v>
       </c>
       <c r="S444" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T444" s="11">
         <v>10</v>
@@ -37464,7 +37451,7 @@
         <v>10</v>
       </c>
       <c r="S445" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T445" s="11">
         <v>10</v>
@@ -37541,7 +37528,7 @@
         <v>10</v>
       </c>
       <c r="S446" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T446" s="11">
         <v>10</v>
@@ -37618,7 +37605,7 @@
         <v>10</v>
       </c>
       <c r="S447" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T447" s="11">
         <v>10</v>
@@ -37695,7 +37682,7 @@
         <v>10</v>
       </c>
       <c r="S448" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T448" s="11">
         <v>10</v>
@@ -37772,7 +37759,7 @@
         <v>10</v>
       </c>
       <c r="S449" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T449" s="11">
         <v>10</v>
@@ -37849,7 +37836,7 @@
         <v>10</v>
       </c>
       <c r="S450" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T450" s="11">
         <v>10</v>
@@ -37926,7 +37913,7 @@
         <v>10</v>
       </c>
       <c r="S451" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T451" s="11">
         <v>10</v>
@@ -38003,7 +37990,7 @@
         <v>10</v>
       </c>
       <c r="S452" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T452" s="11">
         <v>10</v>
@@ -38080,7 +38067,7 @@
         <v>10</v>
       </c>
       <c r="S453" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T453" s="11">
         <v>10</v>
@@ -38157,7 +38144,7 @@
         <v>10</v>
       </c>
       <c r="S454" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T454" s="11">
         <v>10</v>
@@ -38234,7 +38221,7 @@
         <v>10</v>
       </c>
       <c r="S455" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T455" s="11">
         <v>10</v>
@@ -38311,7 +38298,7 @@
         <v>10</v>
       </c>
       <c r="S456" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T456" s="11">
         <v>10</v>
@@ -38388,7 +38375,7 @@
         <v>10</v>
       </c>
       <c r="S457" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T457" s="11">
         <v>10</v>
@@ -38465,7 +38452,7 @@
         <v>10</v>
       </c>
       <c r="S458" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T458" s="11">
         <v>10</v>
@@ -38542,7 +38529,7 @@
         <v>10</v>
       </c>
       <c r="S459" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T459" s="11">
         <v>10</v>
@@ -38619,7 +38606,7 @@
         <v>10</v>
       </c>
       <c r="S460" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T460" s="11">
         <v>10</v>
@@ -38696,7 +38683,7 @@
         <v>10</v>
       </c>
       <c r="S461" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T461" s="11">
         <v>10</v>
@@ -38773,7 +38760,7 @@
         <v>10</v>
       </c>
       <c r="S462" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T462" s="11">
         <v>10</v>
@@ -38850,7 +38837,7 @@
         <v>10</v>
       </c>
       <c r="S463" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T463" s="11">
         <v>10</v>
@@ -38927,7 +38914,7 @@
         <v>10</v>
       </c>
       <c r="S464" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T464" s="11">
         <v>10</v>
@@ -39004,7 +38991,7 @@
         <v>10</v>
       </c>
       <c r="S465" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T465" s="11">
         <v>10</v>
@@ -39081,7 +39068,7 @@
         <v>10</v>
       </c>
       <c r="S466" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T466" s="11">
         <v>10</v>
@@ -39158,7 +39145,7 @@
         <v>10</v>
       </c>
       <c r="S467" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T467" s="11">
         <v>10</v>
@@ -39235,7 +39222,7 @@
         <v>10</v>
       </c>
       <c r="S468" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T468" s="11">
         <v>10</v>
@@ -39312,7 +39299,7 @@
         <v>10</v>
       </c>
       <c r="S469" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T469" s="11">
         <v>10</v>
@@ -39389,7 +39376,7 @@
         <v>10</v>
       </c>
       <c r="S470" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T470" s="11">
         <v>10</v>
@@ -39466,7 +39453,7 @@
         <v>10</v>
       </c>
       <c r="S471" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T471" s="11">
         <v>10</v>
@@ -39543,7 +39530,7 @@
         <v>10</v>
       </c>
       <c r="S472" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T472" s="11">
         <v>10</v>
@@ -39620,7 +39607,7 @@
         <v>10</v>
       </c>
       <c r="S473" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T473" s="11">
         <v>10</v>
@@ -39697,7 +39684,7 @@
         <v>10</v>
       </c>
       <c r="S474" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T474" s="11">
         <v>10</v>
@@ -39774,7 +39761,7 @@
         <v>10</v>
       </c>
       <c r="S475" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T475" s="11">
         <v>10</v>
@@ -39851,7 +39838,7 @@
         <v>10</v>
       </c>
       <c r="S476" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T476" s="11">
         <v>10</v>
@@ -39928,7 +39915,7 @@
         <v>10</v>
       </c>
       <c r="S477" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T477" s="11">
         <v>10</v>
@@ -40005,7 +39992,7 @@
         <v>10</v>
       </c>
       <c r="S478" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T478" s="11">
         <v>10</v>
@@ -40082,7 +40069,7 @@
         <v>10</v>
       </c>
       <c r="S479" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T479" s="11">
         <v>10</v>
@@ -40159,7 +40146,7 @@
         <v>10</v>
       </c>
       <c r="S480" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T480" s="11">
         <v>10</v>
@@ -40176,7 +40163,7 @@
       <c r="X480" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y480" s="4">
+      <c r="Y480" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40236,7 +40223,7 @@
         <v>10</v>
       </c>
       <c r="S481" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T481" s="11">
         <v>10</v>
@@ -40253,7 +40240,7 @@
       <c r="X481" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y481" s="4">
+      <c r="Y481" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40313,7 +40300,7 @@
         <v>10</v>
       </c>
       <c r="S482" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T482" s="11">
         <v>10</v>
@@ -40330,7 +40317,7 @@
       <c r="X482" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y482" s="4">
+      <c r="Y482" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40390,7 +40377,7 @@
         <v>10</v>
       </c>
       <c r="S483" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T483" s="11">
         <v>10</v>
@@ -40407,7 +40394,7 @@
       <c r="X483" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y483" s="4">
+      <c r="Y483" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40467,7 +40454,7 @@
         <v>10</v>
       </c>
       <c r="S484" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T484" s="11">
         <v>10</v>
@@ -40484,7 +40471,7 @@
       <c r="X484" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y484" s="4">
+      <c r="Y484" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40544,7 +40531,7 @@
         <v>10</v>
       </c>
       <c r="S485" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T485" s="11">
         <v>10</v>
@@ -40561,7 +40548,7 @@
       <c r="X485" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y485" s="4">
+      <c r="Y485" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40621,7 +40608,7 @@
         <v>10</v>
       </c>
       <c r="S486" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T486" s="11">
         <v>10</v>
@@ -40638,7 +40625,7 @@
       <c r="X486" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y486" s="4">
+      <c r="Y486" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40698,7 +40685,7 @@
         <v>10</v>
       </c>
       <c r="S487" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T487" s="11">
         <v>10</v>
@@ -40715,7 +40702,7 @@
       <c r="X487" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y487" s="4">
+      <c r="Y487" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40775,7 +40762,7 @@
         <v>10</v>
       </c>
       <c r="S488" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T488" s="11">
         <v>10</v>
@@ -40792,7 +40779,7 @@
       <c r="X488" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y488" s="4">
+      <c r="Y488" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40852,7 +40839,7 @@
         <v>10</v>
       </c>
       <c r="S489" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T489" s="11">
         <v>10</v>
@@ -40869,7 +40856,7 @@
       <c r="X489" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y489" s="4">
+      <c r="Y489" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40929,7 +40916,7 @@
         <v>10</v>
       </c>
       <c r="S490" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T490" s="11">
         <v>10</v>
@@ -40946,7 +40933,7 @@
       <c r="X490" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y490" s="4">
+      <c r="Y490" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41006,7 +40993,7 @@
         <v>10</v>
       </c>
       <c r="S491" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T491" s="11">
         <v>10</v>
@@ -41023,7 +41010,7 @@
       <c r="X491" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y491" s="4">
+      <c r="Y491" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41083,7 +41070,7 @@
         <v>10</v>
       </c>
       <c r="S492" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T492" s="11">
         <v>10</v>
@@ -41100,7 +41087,7 @@
       <c r="X492" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y492" s="4">
+      <c r="Y492" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41160,7 +41147,7 @@
         <v>10</v>
       </c>
       <c r="S493" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T493" s="11">
         <v>10</v>
@@ -41177,7 +41164,7 @@
       <c r="X493" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y493" s="4">
+      <c r="Y493" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41237,7 +41224,7 @@
         <v>10</v>
       </c>
       <c r="S494" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T494" s="11">
         <v>10</v>
@@ -41254,7 +41241,7 @@
       <c r="X494" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y494" s="4">
+      <c r="Y494" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41314,7 +41301,7 @@
         <v>10</v>
       </c>
       <c r="S495" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T495" s="11">
         <v>10</v>
@@ -41331,7 +41318,7 @@
       <c r="X495" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y495" s="4">
+      <c r="Y495" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41391,7 +41378,7 @@
         <v>10</v>
       </c>
       <c r="S496" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T496" s="11">
         <v>10</v>
@@ -41408,7 +41395,7 @@
       <c r="X496" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y496" s="4">
+      <c r="Y496" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41468,7 +41455,7 @@
         <v>10</v>
       </c>
       <c r="S497" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T497" s="11">
         <v>10</v>
@@ -41485,7 +41472,7 @@
       <c r="X497" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y497" s="4">
+      <c r="Y497" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41545,7 +41532,7 @@
         <v>10</v>
       </c>
       <c r="S498" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T498" s="11">
         <v>10</v>
@@ -41562,7 +41549,7 @@
       <c r="X498" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y498" s="4">
+      <c r="Y498" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41622,7 +41609,7 @@
         <v>10</v>
       </c>
       <c r="S499" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T499" s="11">
         <v>10</v>
@@ -41639,7 +41626,7 @@
       <c r="X499" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y499" s="4">
+      <c r="Y499" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41699,7 +41686,7 @@
         <v>10</v>
       </c>
       <c r="S500" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T500" s="11">
         <v>10</v>
@@ -41716,7 +41703,7 @@
       <c r="X500" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y500" s="4">
+      <c r="Y500" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41776,7 +41763,7 @@
         <v>10</v>
       </c>
       <c r="S501" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T501" s="11">
         <v>10</v>
@@ -41853,7 +41840,7 @@
         <v>10</v>
       </c>
       <c r="S502" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T502" s="11">
         <v>10</v>
@@ -41930,7 +41917,7 @@
         <v>10</v>
       </c>
       <c r="S503" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T503" s="11">
         <v>10</v>
@@ -42007,7 +41994,7 @@
         <v>10</v>
       </c>
       <c r="S504" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T504" s="11">
         <v>10</v>
@@ -42084,7 +42071,7 @@
         <v>10</v>
       </c>
       <c r="S505" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T505" s="11">
         <v>10</v>
@@ -42161,7 +42148,7 @@
         <v>10</v>
       </c>
       <c r="S506" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T506" s="11">
         <v>10</v>
@@ -42238,7 +42225,7 @@
         <v>10</v>
       </c>
       <c r="S507" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T507" s="11">
         <v>10</v>
@@ -42315,7 +42302,7 @@
         <v>10</v>
       </c>
       <c r="S508" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T508" s="11">
         <v>10</v>
@@ -42392,7 +42379,7 @@
         <v>10</v>
       </c>
       <c r="S509" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T509" s="11">
         <v>10</v>
@@ -42469,7 +42456,7 @@
         <v>10</v>
       </c>
       <c r="S510" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T510" s="11">
         <v>10</v>
@@ -42546,7 +42533,7 @@
         <v>10</v>
       </c>
       <c r="S511" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T511" s="11">
         <v>10</v>
@@ -42623,7 +42610,7 @@
         <v>10</v>
       </c>
       <c r="S512" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T512" s="11">
         <v>10</v>
@@ -42700,7 +42687,7 @@
         <v>10</v>
       </c>
       <c r="S513" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T513" s="11">
         <v>10</v>
@@ -42777,7 +42764,7 @@
         <v>10</v>
       </c>
       <c r="S514" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T514" s="11">
         <v>10</v>
@@ -42854,7 +42841,7 @@
         <v>10</v>
       </c>
       <c r="S515" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T515" s="11">
         <v>10</v>
@@ -42931,7 +42918,7 @@
         <v>10</v>
       </c>
       <c r="S516" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T516" s="11">
         <v>10</v>
@@ -43008,7 +42995,7 @@
         <v>10</v>
       </c>
       <c r="S517" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T517" s="11">
         <v>10</v>
@@ -43085,7 +43072,7 @@
         <v>10</v>
       </c>
       <c r="S518" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T518" s="11">
         <v>10</v>
@@ -43162,7 +43149,7 @@
         <v>10</v>
       </c>
       <c r="S519" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T519" s="11">
         <v>10</v>
@@ -43239,7 +43226,7 @@
         <v>10</v>
       </c>
       <c r="S520" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T520" s="11">
         <v>10</v>
@@ -43316,7 +43303,7 @@
         <v>10</v>
       </c>
       <c r="S521" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T521" s="11">
         <v>10</v>
@@ -43393,7 +43380,7 @@
         <v>10</v>
       </c>
       <c r="S522" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T522" s="11">
         <v>10</v>
@@ -43470,7 +43457,7 @@
         <v>10</v>
       </c>
       <c r="S523" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T523" s="11">
         <v>10</v>
@@ -43547,7 +43534,7 @@
         <v>10</v>
       </c>
       <c r="S524" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T524" s="11">
         <v>10</v>
@@ -43624,7 +43611,7 @@
         <v>10</v>
       </c>
       <c r="S525" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T525" s="11">
         <v>10</v>
@@ -43701,7 +43688,7 @@
         <v>10</v>
       </c>
       <c r="S526" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T526" s="11">
         <v>10</v>
@@ -43778,7 +43765,7 @@
         <v>10</v>
       </c>
       <c r="S527" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T527" s="11">
         <v>10</v>
@@ -43855,7 +43842,7 @@
         <v>10</v>
       </c>
       <c r="S528" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T528" s="11">
         <v>10</v>
@@ -43932,7 +43919,7 @@
         <v>10</v>
       </c>
       <c r="S529" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T529" s="11">
         <v>10</v>
@@ -44009,7 +43996,7 @@
         <v>10</v>
       </c>
       <c r="S530" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T530" s="11">
         <v>10</v>
@@ -44086,7 +44073,7 @@
         <v>10</v>
       </c>
       <c r="S531" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T531" s="11">
         <v>10</v>
@@ -44163,7 +44150,7 @@
         <v>10</v>
       </c>
       <c r="S532" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T532" s="11">
         <v>10</v>
@@ -44240,7 +44227,7 @@
         <v>10</v>
       </c>
       <c r="S533" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T533" s="11">
         <v>10</v>
@@ -44317,7 +44304,7 @@
         <v>10</v>
       </c>
       <c r="S534" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T534" s="11">
         <v>10</v>
@@ -44334,7 +44321,7 @@
       <c r="X534" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y534" s="25">
+      <c r="Y534" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44394,7 +44381,7 @@
         <v>10</v>
       </c>
       <c r="S535" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T535" s="11">
         <v>10</v>
@@ -44471,7 +44458,7 @@
         <v>10</v>
       </c>
       <c r="S536" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T536" s="11">
         <v>10</v>
@@ -44488,7 +44475,7 @@
       <c r="X536" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y536" s="25">
+      <c r="Y536" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44548,7 +44535,7 @@
         <v>10</v>
       </c>
       <c r="S537" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T537" s="11">
         <v>10</v>
@@ -44625,7 +44612,7 @@
         <v>10</v>
       </c>
       <c r="S538" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T538" s="11">
         <v>10</v>
@@ -44642,7 +44629,7 @@
       <c r="X538" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y538" s="25">
+      <c r="Y538" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44702,7 +44689,7 @@
         <v>10</v>
       </c>
       <c r="S539" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T539" s="11">
         <v>10</v>
@@ -44779,7 +44766,7 @@
         <v>10</v>
       </c>
       <c r="S540" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T540" s="11">
         <v>10</v>
@@ -44796,7 +44783,7 @@
       <c r="X540" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y540" s="25">
+      <c r="Y540" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44856,7 +44843,7 @@
         <v>10</v>
       </c>
       <c r="S541" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T541" s="11">
         <v>10</v>
@@ -44933,7 +44920,7 @@
         <v>10</v>
       </c>
       <c r="S542" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T542" s="11">
         <v>10</v>
@@ -44950,7 +44937,7 @@
       <c r="X542" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y542" s="25">
+      <c r="Y542" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45010,7 +44997,7 @@
         <v>10</v>
       </c>
       <c r="S543" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T543" s="11">
         <v>10</v>
@@ -45087,7 +45074,7 @@
         <v>10</v>
       </c>
       <c r="S544" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T544" s="11">
         <v>10</v>
@@ -45104,7 +45091,7 @@
       <c r="X544" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y544" s="25">
+      <c r="Y544" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45164,7 +45151,7 @@
         <v>10</v>
       </c>
       <c r="S545" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T545" s="11">
         <v>10</v>
@@ -45241,7 +45228,7 @@
         <v>10</v>
       </c>
       <c r="S546" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T546" s="11">
         <v>10</v>
@@ -45258,7 +45245,7 @@
       <c r="X546" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y546" s="25">
+      <c r="Y546" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45318,7 +45305,7 @@
         <v>10</v>
       </c>
       <c r="S547" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T547" s="11">
         <v>10</v>
@@ -45395,7 +45382,7 @@
         <v>10</v>
       </c>
       <c r="S548" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T548" s="11">
         <v>10</v>
@@ -45412,7 +45399,7 @@
       <c r="X548" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y548" s="25">
+      <c r="Y548" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45472,7 +45459,7 @@
         <v>10</v>
       </c>
       <c r="S549" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T549" s="11">
         <v>10</v>
@@ -45549,7 +45536,7 @@
         <v>10</v>
       </c>
       <c r="S550" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T550" s="11">
         <v>10</v>
@@ -45566,7 +45553,7 @@
       <c r="X550" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y550" s="25">
+      <c r="Y550" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45626,7 +45613,7 @@
         <v>10</v>
       </c>
       <c r="S551" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T551" s="11">
         <v>10</v>
@@ -45703,7 +45690,7 @@
         <v>10</v>
       </c>
       <c r="S552" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T552" s="11">
         <v>10</v>
@@ -45720,7 +45707,7 @@
       <c r="X552" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y552" s="25">
+      <c r="Y552" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45780,7 +45767,7 @@
         <v>10</v>
       </c>
       <c r="S553" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T553" s="11">
         <v>10</v>
@@ -45857,7 +45844,7 @@
         <v>10</v>
       </c>
       <c r="S554" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T554" s="11">
         <v>10</v>
@@ -45874,7 +45861,7 @@
       <c r="X554" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y554" s="25">
+      <c r="Y554" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45934,7 +45921,7 @@
         <v>10</v>
       </c>
       <c r="S555" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T555" s="11">
         <v>10</v>
@@ -46011,7 +45998,7 @@
         <v>10</v>
       </c>
       <c r="S556" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T556" s="11">
         <v>10</v>
@@ -46028,7 +46015,7 @@
       <c r="X556" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y556" s="25">
+      <c r="Y556" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46088,7 +46075,7 @@
         <v>10</v>
       </c>
       <c r="S557" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T557" s="11">
         <v>10</v>
@@ -46165,7 +46152,7 @@
         <v>10</v>
       </c>
       <c r="S558" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T558" s="11">
         <v>10</v>
@@ -46182,7 +46169,7 @@
       <c r="X558" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y558" s="25">
+      <c r="Y558" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46242,7 +46229,7 @@
         <v>10</v>
       </c>
       <c r="S559" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T559" s="11">
         <v>10</v>
@@ -46319,7 +46306,7 @@
         <v>10</v>
       </c>
       <c r="S560" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T560" s="11">
         <v>10</v>
@@ -46336,7 +46323,7 @@
       <c r="X560" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y560" s="25">
+      <c r="Y560" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46396,7 +46383,7 @@
         <v>10</v>
       </c>
       <c r="S561" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T561" s="11">
         <v>10</v>
@@ -46473,7 +46460,7 @@
         <v>10</v>
       </c>
       <c r="S562" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T562" s="11">
         <v>10</v>
@@ -46490,7 +46477,7 @@
       <c r="X562" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y562" s="25">
+      <c r="Y562" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46550,7 +46537,7 @@
         <v>10</v>
       </c>
       <c r="S563" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T563" s="11">
         <v>10</v>
@@ -46627,7 +46614,7 @@
         <v>10</v>
       </c>
       <c r="S564" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T564" s="11">
         <v>10</v>
@@ -46644,7 +46631,7 @@
       <c r="X564" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y564" s="25">
+      <c r="Y564" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46704,7 +46691,7 @@
         <v>10</v>
       </c>
       <c r="S565" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T565" s="11">
         <v>10</v>
@@ -46781,7 +46768,7 @@
         <v>10</v>
       </c>
       <c r="S566" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T566" s="11">
         <v>10</v>
@@ -46798,7 +46785,7 @@
       <c r="X566" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y566" s="25">
+      <c r="Y566" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46858,7 +46845,7 @@
         <v>10</v>
       </c>
       <c r="S567" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T567" s="11">
         <v>10</v>
@@ -46935,7 +46922,7 @@
         <v>10</v>
       </c>
       <c r="S568" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T568" s="11">
         <v>10</v>
@@ -46952,7 +46939,7 @@
       <c r="X568" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y568" s="25">
+      <c r="Y568" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47012,7 +46999,7 @@
         <v>10</v>
       </c>
       <c r="S569" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T569" s="11">
         <v>10</v>
@@ -47089,7 +47076,7 @@
         <v>10</v>
       </c>
       <c r="S570" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T570" s="11">
         <v>10</v>
@@ -47106,7 +47093,7 @@
       <c r="X570" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y570" s="25">
+      <c r="Y570" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47166,7 +47153,7 @@
         <v>10</v>
       </c>
       <c r="S571" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T571" s="11">
         <v>10</v>
@@ -47243,7 +47230,7 @@
         <v>10</v>
       </c>
       <c r="S572" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T572" s="11">
         <v>10</v>
@@ -47260,7 +47247,7 @@
       <c r="X572" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y572" s="25">
+      <c r="Y572" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47320,7 +47307,7 @@
         <v>10</v>
       </c>
       <c r="S573" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T573" s="11">
         <v>10</v>
@@ -47397,7 +47384,7 @@
         <v>10</v>
       </c>
       <c r="S574" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T574" s="11">
         <v>10</v>
@@ -47414,7 +47401,7 @@
       <c r="X574" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y574" s="25">
+      <c r="Y574" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47474,7 +47461,7 @@
         <v>10</v>
       </c>
       <c r="S575" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T575" s="11">
         <v>10</v>
@@ -47551,7 +47538,7 @@
         <v>10</v>
       </c>
       <c r="S576" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T576" s="11">
         <v>10</v>
@@ -47568,7 +47555,7 @@
       <c r="X576" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y576" s="25">
+      <c r="Y576" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47628,7 +47615,7 @@
         <v>10</v>
       </c>
       <c r="S577" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T577" s="11">
         <v>10</v>
@@ -47705,7 +47692,7 @@
         <v>10</v>
       </c>
       <c r="S578" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T578" s="11">
         <v>10</v>
@@ -47722,7 +47709,7 @@
       <c r="X578" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y578" s="25">
+      <c r="Y578" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47782,7 +47769,7 @@
         <v>10</v>
       </c>
       <c r="S579" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T579" s="11">
         <v>10</v>
@@ -47859,7 +47846,7 @@
         <v>10</v>
       </c>
       <c r="S580" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T580" s="11">
         <v>10</v>
@@ -47876,7 +47863,7 @@
       <c r="X580" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y580" s="25">
+      <c r="Y580" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47936,7 +47923,7 @@
         <v>10</v>
       </c>
       <c r="S581" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T581" s="11">
         <v>10</v>
@@ -48013,7 +48000,7 @@
         <v>10</v>
       </c>
       <c r="S582" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T582" s="11">
         <v>10</v>
@@ -48030,7 +48017,7 @@
       <c r="X582" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y582" s="25">
+      <c r="Y582" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48090,7 +48077,7 @@
         <v>10</v>
       </c>
       <c r="S583" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T583" s="11">
         <v>10</v>
@@ -48167,7 +48154,7 @@
         <v>10</v>
       </c>
       <c r="S584" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T584" s="11">
         <v>10</v>
@@ -48184,7 +48171,7 @@
       <c r="X584" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y584" s="25">
+      <c r="Y584" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48244,7 +48231,7 @@
         <v>10</v>
       </c>
       <c r="S585" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T585" s="11">
         <v>10</v>
@@ -48321,7 +48308,7 @@
         <v>10</v>
       </c>
       <c r="S586" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T586" s="11">
         <v>10</v>
@@ -48338,7 +48325,7 @@
       <c r="X586" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y586" s="25">
+      <c r="Y586" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48398,7 +48385,7 @@
         <v>10</v>
       </c>
       <c r="S587" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T587" s="11">
         <v>10</v>
@@ -48475,7 +48462,7 @@
         <v>10</v>
       </c>
       <c r="S588" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T588" s="11">
         <v>10</v>
@@ -48492,7 +48479,7 @@
       <c r="X588" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y588" s="25">
+      <c r="Y588" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48552,7 +48539,7 @@
         <v>10</v>
       </c>
       <c r="S589" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T589" s="11">
         <v>10</v>
@@ -48629,7 +48616,7 @@
         <v>10</v>
       </c>
       <c r="S590" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T590" s="11">
         <v>10</v>
@@ -48646,7 +48633,7 @@
       <c r="X590" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y590" s="25">
+      <c r="Y590" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48706,7 +48693,7 @@
         <v>10</v>
       </c>
       <c r="S591" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T591" s="11">
         <v>10</v>
@@ -48783,7 +48770,7 @@
         <v>10</v>
       </c>
       <c r="S592" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T592" s="11">
         <v>10</v>
@@ -48800,7 +48787,7 @@
       <c r="X592" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y592" s="25">
+      <c r="Y592" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48860,7 +48847,7 @@
         <v>10</v>
       </c>
       <c r="S593" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T593" s="11">
         <v>10</v>
@@ -48937,7 +48924,7 @@
         <v>10</v>
       </c>
       <c r="S594" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T594" s="11">
         <v>10</v>
@@ -48954,7 +48941,7 @@
       <c r="X594" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y594" s="25">
+      <c r="Y594" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49014,7 +49001,7 @@
         <v>10</v>
       </c>
       <c r="S595" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T595" s="11">
         <v>10</v>
@@ -49091,7 +49078,7 @@
         <v>10</v>
       </c>
       <c r="S596" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T596" s="11">
         <v>10</v>
@@ -49108,7 +49095,7 @@
       <c r="X596" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y596" s="25">
+      <c r="Y596" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49168,7 +49155,7 @@
         <v>10</v>
       </c>
       <c r="S597" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T597" s="11">
         <v>10</v>
@@ -49245,7 +49232,7 @@
         <v>10</v>
       </c>
       <c r="S598" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T598" s="11">
         <v>10</v>
@@ -49262,7 +49249,7 @@
       <c r="X598" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y598" s="25">
+      <c r="Y598" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49322,7 +49309,7 @@
         <v>10</v>
       </c>
       <c r="S599" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T599" s="11">
         <v>10</v>
@@ -49399,7 +49386,7 @@
         <v>10</v>
       </c>
       <c r="S600" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T600" s="11">
         <v>10</v>
@@ -49416,7 +49403,7 @@
       <c r="X600" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y600" s="25">
+      <c r="Y600" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49476,7 +49463,7 @@
         <v>10</v>
       </c>
       <c r="S601" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T601" s="11">
         <v>10</v>
@@ -49553,7 +49540,7 @@
         <v>10</v>
       </c>
       <c r="S602" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T602" s="11">
         <v>10</v>
@@ -49570,7 +49557,7 @@
       <c r="X602" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y602" s="25">
+      <c r="Y602" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49630,7 +49617,7 @@
         <v>10</v>
       </c>
       <c r="S603" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T603" s="11">
         <v>10</v>
@@ -49707,7 +49694,7 @@
         <v>10</v>
       </c>
       <c r="S604" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T604" s="11">
         <v>10</v>
@@ -49724,7 +49711,7 @@
       <c r="X604" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y604" s="25">
+      <c r="Y604" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49784,7 +49771,7 @@
         <v>10</v>
       </c>
       <c r="S605" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T605" s="11">
         <v>10</v>
@@ -49861,7 +49848,7 @@
         <v>10</v>
       </c>
       <c r="S606" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T606" s="11">
         <v>10</v>
@@ -49878,7 +49865,7 @@
       <c r="X606" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y606" s="25">
+      <c r="Y606" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49938,7 +49925,7 @@
         <v>10</v>
       </c>
       <c r="S607" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T607" s="11">
         <v>10</v>
@@ -50015,7 +50002,7 @@
         <v>10</v>
       </c>
       <c r="S608" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T608" s="11">
         <v>10</v>
@@ -50032,7 +50019,7 @@
       <c r="X608" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y608" s="25">
+      <c r="Y608" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50092,7 +50079,7 @@
         <v>10</v>
       </c>
       <c r="S609" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T609" s="11">
         <v>10</v>
@@ -50169,7 +50156,7 @@
         <v>10</v>
       </c>
       <c r="S610" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T610" s="11">
         <v>10</v>
@@ -50186,7 +50173,7 @@
       <c r="X610" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y610" s="25">
+      <c r="Y610" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50246,7 +50233,7 @@
         <v>10</v>
       </c>
       <c r="S611" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T611" s="11">
         <v>10</v>
@@ -50323,7 +50310,7 @@
         <v>10</v>
       </c>
       <c r="S612" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T612" s="11">
         <v>10</v>
@@ -50340,7 +50327,7 @@
       <c r="X612" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y612" s="25">
+      <c r="Y612" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50400,7 +50387,7 @@
         <v>10</v>
       </c>
       <c r="S613" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T613" s="11">
         <v>10</v>
@@ -50477,7 +50464,7 @@
         <v>10</v>
       </c>
       <c r="S614" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T614" s="11">
         <v>10</v>
@@ -50494,7 +50481,7 @@
       <c r="X614" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y614" s="25">
+      <c r="Y614" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50554,7 +50541,7 @@
         <v>10</v>
       </c>
       <c r="S615" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T615" s="11">
         <v>10</v>
@@ -50631,7 +50618,7 @@
         <v>10</v>
       </c>
       <c r="S616" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T616" s="11">
         <v>10</v>
@@ -50648,7 +50635,7 @@
       <c r="X616" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y616" s="25">
+      <c r="Y616" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50708,7 +50695,7 @@
         <v>10</v>
       </c>
       <c r="S617" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T617" s="11">
         <v>10</v>
@@ -50785,7 +50772,7 @@
         <v>10</v>
       </c>
       <c r="S618" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T618" s="11">
         <v>10</v>
@@ -50802,7 +50789,7 @@
       <c r="X618" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y618" s="25">
+      <c r="Y618" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50862,7 +50849,7 @@
         <v>10</v>
       </c>
       <c r="S619" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T619" s="11">
         <v>10</v>
@@ -50939,7 +50926,7 @@
         <v>10</v>
       </c>
       <c r="S620" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T620" s="11">
         <v>10</v>
@@ -50956,7 +50943,7 @@
       <c r="X620" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y620" s="25">
+      <c r="Y620" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51016,7 +51003,7 @@
         <v>10</v>
       </c>
       <c r="S621" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T621" s="11">
         <v>10</v>
@@ -51093,7 +51080,7 @@
         <v>10</v>
       </c>
       <c r="S622" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T622" s="11">
         <v>10</v>
@@ -51110,7 +51097,7 @@
       <c r="X622" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y622" s="25">
+      <c r="Y622" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51170,7 +51157,7 @@
         <v>10</v>
       </c>
       <c r="S623" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T623" s="11">
         <v>10</v>
@@ -51247,7 +51234,7 @@
         <v>10</v>
       </c>
       <c r="S624" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T624" s="11">
         <v>10</v>
@@ -51264,7 +51251,7 @@
       <c r="X624" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y624" s="25">
+      <c r="Y624" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51324,7 +51311,7 @@
         <v>10</v>
       </c>
       <c r="S625" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T625" s="11">
         <v>10</v>
@@ -51401,7 +51388,7 @@
         <v>10</v>
       </c>
       <c r="S626" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T626" s="11">
         <v>10</v>
@@ -51418,7 +51405,7 @@
       <c r="X626" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y626" s="25">
+      <c r="Y626" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51478,7 +51465,7 @@
         <v>10</v>
       </c>
       <c r="S627" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T627" s="11">
         <v>10</v>
@@ -51555,7 +51542,7 @@
         <v>10</v>
       </c>
       <c r="S628" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T628" s="11">
         <v>10</v>
@@ -51572,7 +51559,7 @@
       <c r="X628" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y628" s="25">
+      <c r="Y628" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51632,7 +51619,7 @@
         <v>10</v>
       </c>
       <c r="S629" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T629" s="11">
         <v>10</v>
@@ -51709,7 +51696,7 @@
         <v>10</v>
       </c>
       <c r="S630" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T630" s="11">
         <v>10</v>
@@ -51726,7 +51713,7 @@
       <c r="X630" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y630" s="25">
+      <c r="Y630" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51786,7 +51773,7 @@
         <v>10</v>
       </c>
       <c r="S631" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T631" s="11">
         <v>10</v>
@@ -51863,7 +51850,7 @@
         <v>10</v>
       </c>
       <c r="S632" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T632" s="11">
         <v>10</v>
@@ -51880,7 +51867,7 @@
       <c r="X632" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y632" s="25">
+      <c r="Y632" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51940,7 +51927,7 @@
         <v>10</v>
       </c>
       <c r="S633" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T633" s="11">
         <v>10</v>
@@ -52017,7 +52004,7 @@
         <v>10</v>
       </c>
       <c r="S634" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T634" s="11">
         <v>10</v>
@@ -52034,7 +52021,7 @@
       <c r="X634" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y634" s="25">
+      <c r="Y634" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52094,7 +52081,7 @@
         <v>10</v>
       </c>
       <c r="S635" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T635" s="11">
         <v>10</v>
@@ -52171,7 +52158,7 @@
         <v>10</v>
       </c>
       <c r="S636" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T636" s="11">
         <v>10</v>
@@ -52188,7 +52175,7 @@
       <c r="X636" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y636" s="25">
+      <c r="Y636" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52248,7 +52235,7 @@
         <v>10</v>
       </c>
       <c r="S637" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T637" s="11">
         <v>10</v>
@@ -52325,7 +52312,7 @@
         <v>10</v>
       </c>
       <c r="S638" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T638" s="11">
         <v>10</v>
@@ -52342,7 +52329,7 @@
       <c r="X638" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y638" s="25">
+      <c r="Y638" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52402,7 +52389,7 @@
         <v>10</v>
       </c>
       <c r="S639" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T639" s="11">
         <v>10</v>
@@ -52479,7 +52466,7 @@
         <v>10</v>
       </c>
       <c r="S640" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T640" s="11">
         <v>10</v>
@@ -52496,7 +52483,7 @@
       <c r="X640" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y640" s="25">
+      <c r="Y640" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52556,7 +52543,7 @@
         <v>10</v>
       </c>
       <c r="S641" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T641" s="11">
         <v>10</v>
@@ -52633,7 +52620,7 @@
         <v>10</v>
       </c>
       <c r="S642" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T642" s="11">
         <v>10</v>
@@ -52650,7 +52637,7 @@
       <c r="X642" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y642" s="25">
+      <c r="Y642" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52710,7 +52697,7 @@
         <v>10</v>
       </c>
       <c r="S643" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T643" s="11">
         <v>10</v>
@@ -52787,7 +52774,7 @@
         <v>10</v>
       </c>
       <c r="S644" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T644" s="11">
         <v>10</v>
@@ -52804,7 +52791,7 @@
       <c r="X644" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y644" s="25">
+      <c r="Y644" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52864,7 +52851,7 @@
         <v>10</v>
       </c>
       <c r="S645" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T645" s="11">
         <v>10</v>
@@ -52941,7 +52928,7 @@
         <v>10</v>
       </c>
       <c r="S646" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T646" s="11">
         <v>10</v>
@@ -52958,7 +52945,7 @@
       <c r="X646" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y646" s="25">
+      <c r="Y646" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -53018,7 +53005,7 @@
         <v>10</v>
       </c>
       <c r="S647" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T647" s="11">
         <v>10</v>
@@ -53095,7 +53082,7 @@
         <v>10</v>
       </c>
       <c r="S648" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T648" s="11">
         <v>10</v>
@@ -53112,7 +53099,7 @@
       <c r="X648" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y648" s="25">
+      <c r="Y648" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -53125,7 +53112,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A648">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53135,31 +53122,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Settings!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Settings!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Settings!$E$3:$E$4</xm:f>
           </x14:formula1>
@@ -53172,7 +53159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
